--- a/data/trans_dic/P04D$colectiva-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.005069237297751681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03102459761319748</v>
+        <v>0.03102459761319749</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.01739210753864113</v>
@@ -655,7 +655,7 @@
         <v>0.01267377438986209</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.02779287125490232</v>
+        <v>0.02779287125490233</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.01496981721929074</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006181703787388562</v>
+        <v>0.005755297000094182</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001201552932663738</v>
+        <v>0.001197178240927929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02006328982685688</v>
+        <v>0.02032274110271025</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01108386907057039</v>
+        <v>0.01073695006274308</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007253103502769789</v>
+        <v>0.006585761770358349</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02018144153718772</v>
+        <v>0.02057300225955127</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01020278314331402</v>
+        <v>0.0108332208603484</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005641102302202165</v>
+        <v>0.005523802304121635</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0222620745425742</v>
+        <v>0.02327855481700501</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01952987418444525</v>
+        <v>0.02049731658820894</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01210814642146964</v>
+        <v>0.01161404079595231</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04565537324107346</v>
+        <v>0.04576286161466848</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02579980560067956</v>
+        <v>0.02620033661681345</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02433393768687742</v>
+        <v>0.02215772030604339</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03769670078643875</v>
+        <v>0.03746043230262761</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02134083304188751</v>
+        <v>0.02164035112450559</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01520376836578784</v>
+        <v>0.01615247050681757</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0367987218239702</v>
+        <v>0.03699824748850741</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.02325914107439396</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04763353205445035</v>
+        <v>0.04763353205445036</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.02664548999506518</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02733552074147533</v>
+        <v>0.02472799384441901</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01767197062981988</v>
+        <v>0.01722201190794706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03884158786730377</v>
+        <v>0.03806111252448057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01976681184519641</v>
+        <v>0.01949718439543507</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01307817731690544</v>
+        <v>0.01301611241457632</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04237096020975888</v>
+        <v>0.04226114398389302</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02531151734996877</v>
+        <v>0.02477458896685303</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01681177107718308</v>
+        <v>0.01704928085505441</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04244209045281907</v>
+        <v>0.04259639056385513</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04414861505823397</v>
+        <v>0.04273994540091114</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03072366263055575</v>
+        <v>0.03100857908764814</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05834629644242283</v>
+        <v>0.05745876407264522</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03559535017177343</v>
+        <v>0.0359987576192163</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02548565160054185</v>
+        <v>0.02585769648872143</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05878026615465679</v>
+        <v>0.05867383374281923</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03707678509505818</v>
+        <v>0.03640952521623421</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02604323896729827</v>
+        <v>0.02631084855810904</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05551281681287984</v>
+        <v>0.05554262751670566</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.06941952388253192</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1339725884897658</v>
+        <v>0.1339725884897659</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.05850953090091435</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04074075453040775</v>
+        <v>0.04228215121344939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05429332989233031</v>
+        <v>0.05716095565651285</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09632682861254285</v>
+        <v>0.0919180497526248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03856870472686001</v>
+        <v>0.03704015469846648</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05059594019593081</v>
+        <v>0.04996694766964065</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1126873626708564</v>
+        <v>0.1129196251959043</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04475855044977271</v>
+        <v>0.04522444095900367</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05899155223733229</v>
+        <v>0.05829369937372084</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1099312538295929</v>
+        <v>0.1105408486083271</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08582553112314048</v>
+        <v>0.08818543066772846</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1037986838749043</v>
+        <v>0.104121742340912</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1418053016154071</v>
+        <v>0.141234579804254</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08080881787410246</v>
+        <v>0.08132223027499517</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09558643380533527</v>
+        <v>0.09353164167679057</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1596053689388383</v>
+        <v>0.1588731577338263</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07580774644650305</v>
+        <v>0.07700577143290795</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09110509243061982</v>
+        <v>0.09228320965614793</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1429689435852153</v>
+        <v>0.1424228562902403</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.02786208525934275</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.05878877954930352</v>
+        <v>0.05878877954930351</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.02692256643106166</v>
@@ -991,7 +991,7 @@
         <v>0.02634850619411883</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.06012398370558692</v>
+        <v>0.06012398370558693</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02563638757678498</v>
+        <v>0.0257430432033656</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02190707848898935</v>
+        <v>0.02242523839974017</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05099001710797019</v>
+        <v>0.05064620371257356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02142128956162224</v>
+        <v>0.02191523430785769</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01946397958024964</v>
+        <v>0.01934935014748853</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05521550840217693</v>
+        <v>0.05489263163809564</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02559840362586511</v>
+        <v>0.02542927955699231</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02245718967217153</v>
+        <v>0.02270299428478281</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05514632748284093</v>
+        <v>0.05503539770394883</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03764521212952947</v>
+        <v>0.03824121851455148</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03388714194688888</v>
+        <v>0.03418531957506902</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0676822881055297</v>
+        <v>0.06729623701724756</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03260868223370611</v>
+        <v>0.03309003087682557</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03047963747707802</v>
+        <v>0.03067004801831399</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06910424505584371</v>
+        <v>0.06968248965709574</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03401779828377909</v>
+        <v>0.03404338268308811</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03063711932746616</v>
+        <v>0.03050190108395525</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06624563664632986</v>
+        <v>0.06571212364458799</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6013</v>
+        <v>5598</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11567</v>
+        <v>11716</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14828</v>
+        <v>14364</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7214</v>
+        <v>6551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16576</v>
+        <v>16898</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23573</v>
+        <v>25030</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9866</v>
+        <v>9661</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>31119</v>
+        <v>32540</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18997</v>
+        <v>19938</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9134</v>
+        <v>8761</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26320</v>
+        <v>26382</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34515</v>
+        <v>35051</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24204</v>
+        <v>22039</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30962</v>
+        <v>30768</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49308</v>
+        <v>50000</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26591</v>
+        <v>28251</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51439</v>
+        <v>51718</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>53545</v>
+        <v>48437</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36694</v>
+        <v>35760</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>86345</v>
+        <v>84610</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>34663</v>
+        <v>34190</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>26003</v>
+        <v>25880</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>91770</v>
+        <v>91532</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>93967</v>
+        <v>91973</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>68335</v>
+        <v>69300</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>186273</v>
+        <v>186950</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>86479</v>
+        <v>83719</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>63794</v>
+        <v>64386</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>129703</v>
+        <v>127730</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>62420</v>
+        <v>63127</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>50673</v>
+        <v>51413</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>127311</v>
+        <v>127080</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>137644</v>
+        <v>135167</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>105858</v>
+        <v>106945</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>243638</v>
+        <v>243769</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19604</v>
+        <v>20345</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29692</v>
+        <v>31261</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>68545</v>
+        <v>65408</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17689</v>
+        <v>16988</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27784</v>
+        <v>27439</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>82461</v>
+        <v>82631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>42065</v>
+        <v>42503</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>64656</v>
+        <v>63891</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>158670</v>
+        <v>159550</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41298</v>
+        <v>42433</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56766</v>
+        <v>56943</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>100907</v>
+        <v>100501</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>37061</v>
+        <v>37297</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>52490</v>
+        <v>51362</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>116794</v>
+        <v>116259</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>71245</v>
+        <v>72371</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>99854</v>
+        <v>101145</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>206355</v>
+        <v>205567</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>87489</v>
+        <v>87853</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>73994</v>
+        <v>75744</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>179030</v>
+        <v>177823</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>76046</v>
+        <v>77800</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>68749</v>
+        <v>68344</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>205346</v>
+        <v>204145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>178234</v>
+        <v>177057</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>155173</v>
+        <v>156871</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>398712</v>
+        <v>397910</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>128471</v>
+        <v>130505</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>114458</v>
+        <v>115465</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>237638</v>
+        <v>236282</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>115762</v>
+        <v>117470</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>107657</v>
+        <v>108330</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>256998</v>
+        <v>259149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>236856</v>
+        <v>237034</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>211694</v>
+        <v>210760</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>478961</v>
+        <v>475104</v>
       </c>
     </row>
     <row r="20">
